--- a/TOP画面設計書_V0.2.xlsx
+++ b/TOP画面設計書_V0.2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>版数</t>
     <rPh sb="0" eb="2">
@@ -616,51 +616,6 @@
   <si>
     <t>attribute</t>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>layout_width/height=”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>match_parent”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>orientation="vertical”</t>
-    </r>
-  </si>
-  <si>
-    <t>imageButton *3</t>
-  </si>
-  <si>
-    <t>REPLAY, twitter, FBボタン用の画像をdrawbleディレクトリから読み込み
-ボタン用の画像として設定する。</t>
-  </si>
-  <si>
-    <t>TextView *3</t>
-  </si>
-  <si>
-    <t>”RESULT”の初期値を代入したTextViewと初期値無しのTextViewを２つ作成する。</t>
   </si>
   <si>
     <t>Title</t>
@@ -1347,6 +1302,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1368,95 +1410,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1865,7 +1820,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2513,34 +2468,34 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:7" ht="25.5">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="2:7" ht="25.5">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="2:7" ht="25.5">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="13" spans="2:7">
       <c r="D13" s="1" t="s">
@@ -2559,20 +2514,20 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="21">
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
     </row>
     <row r="22" spans="2:7" ht="21">
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="4"/>
     </row>
     <row r="32" spans="2:7">
@@ -2585,11 +2540,11 @@
       <c r="D32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="5" t="s">
@@ -2601,11 +2556,11 @@
       <c r="D33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="8" t="s">
@@ -2617,11 +2572,11 @@
       <c r="D34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2790,7 +2745,7 @@
         <v>48</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -3029,151 +2984,151 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="45"/>
-    <col min="2" max="2" width="13.25" style="45" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="45" customWidth="1"/>
-    <col min="5" max="7" width="22.875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="52.875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="9" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="9" style="38"/>
+    <col min="2" max="2" width="13.25" style="38" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="38" customWidth="1"/>
+    <col min="5" max="7" width="22.875" style="38" customWidth="1"/>
+    <col min="8" max="8" width="52.875" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9" style="38" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:10" ht="41.25" thickBot="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48" t="s">
+      <c r="G2" s="74"/>
+      <c r="H2" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="41" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57">
+      <c r="G4" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59">
+      <c r="G5" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="60" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
+      <c r="G6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="74">
+      <c r="G7" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="66">
         <v>1</v>
       </c>
-      <c r="J7" s="74">
+      <c r="J7" s="66">
         <v>2</v>
       </c>
     </row>
@@ -3195,50 +3150,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="45"/>
-    <col min="2" max="2" width="16.75" style="45" customWidth="1"/>
-    <col min="3" max="3" width="65.75" style="45" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="9" style="38"/>
+    <col min="2" max="2" width="16.75" style="38" customWidth="1"/>
+    <col min="3" max="3" width="65.75" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="27">
-      <c r="B4" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>86</v>
-      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="58"/>
+      <c r="C4" s="60"/>
     </row>
     <row r="5" spans="2:3" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="B5" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>88</v>
-      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3375,6 +3316,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/TOP画面設計書_V0.2.xlsx
+++ b/TOP画面設計書_V0.2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26929"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="レイアウト設計" sheetId="8" r:id="rId6"/>
     <sheet name="説明" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>版数</t>
     <rPh sb="0" eb="2">
@@ -567,19 +567,6 @@
     <t>動作</t>
   </si>
   <si>
-    <t>イベント
-NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンポーネント
-ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MainActivity</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -589,22 +576,6 @@
     <t>メインアクティビティ生成時</t>
   </si>
   <si>
-    <t>RelativeLayout</t>
-  </si>
-  <si>
-    <t>main_layout</t>
-  </si>
-  <si>
-    <t>findViewById()でRelativeLayoutをレイアウトファイルから読み込む。</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>imageButton</t>
-  </si>
-  <si>
-    <t>setOnClickListener(clicked)</t>
-  </si>
-  <si>
     <t>onClick</t>
   </si>
   <si>
@@ -614,61 +585,135 @@
     <t>View</t>
   </si>
   <si>
-    <t>attribute</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>StartボタンでsetOnClickListener(this)メソッドを実行する。</t>
-    <rPh sb="38" eb="40">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Start_button</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタートボタンを設置</t>
-    <rPh sb="8" eb="10">
-      <t>セッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名</t>
+  </si>
+  <si>
+    <t>Layouts</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>アプリのタイトル</t>
+  </si>
+  <si>
+    <t>LinearLayout(Vertical)</t>
+  </si>
+  <si>
+    <t>Image View</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>中央付近</t>
+  </si>
+  <si>
+    <t>STARTボタン</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>中央下部</t>
+  </si>
+  <si>
+    <t>イベント</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>コンポーネント</t>
+  </si>
+  <si>
+    <t>TopActivity</t>
+  </si>
+  <si>
+    <t>activity_top</t>
+  </si>
+  <si>
+    <t>setContentView()でレイアウトファイルを読み込む。</t>
+  </si>
+  <si>
+    <t>findViewById()でstartボタンを読み込む。</t>
+  </si>
+  <si>
+    <t>setOnClickListener()</t>
+  </si>
+  <si>
+    <t>StartボタンでsetOnClickListener()メソッドを実行する。</t>
   </si>
   <si>
     <t>ボタン押下でプレイ画面に遷移する</t>
-    <rPh sb="3" eb="5">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトルのImageを設置</t>
-    <rPh sb="11" eb="13">
-      <t>セッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onBackPressed()</t>
+  </si>
+  <si>
+    <t>KEYCODE_BACKが押された時</t>
+  </si>
+  <si>
+    <t>戻るボタンが押されたとき、戻る動作とは別の動作をさせる</t>
+  </si>
+  <si>
+    <t>AlertDialog.Builder</t>
+  </si>
+  <si>
+    <t>setTilte</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
+    <t>setMessage</t>
+  </si>
+  <si>
+    <t>アプリを終了しますか？</t>
+  </si>
+  <si>
+    <t>setPositiveButton</t>
+  </si>
+  <si>
+    <t>終了する</t>
+  </si>
+  <si>
+    <t>setNegativeButton</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
+    <t>onClick()</t>
+  </si>
+  <si>
+    <t>finish()</t>
+  </si>
+  <si>
+    <t>終了ボタンが押されたとき</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>キャンセルボタンが押されたとき</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,25 +773,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="Menlo"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Menlo"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,18 +813,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor rgb="FF8DB3E2"/>
+        <fgColor rgb="FFCFE7F5"/>
+        <bgColor rgb="FFDCE6F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE7F5"/>
-        <bgColor rgb="FFDCE6F2"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB4E2"/>
+        <bgColor rgb="FF8DB3E2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -992,13 +1038,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1007,21 +1053,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1036,21 +1067,6 @@
     <border>
       <left style="medium">
         <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
       </left>
       <right style="medium">
         <color auto="1"/>
@@ -1063,58 +1079,99 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1149,7 +1206,18 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -1158,17 +1226,113 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,7 +1351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1305,89 +1469,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1410,7 +1538,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1520,7 +1780,7 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1533,7 +1793,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1548,7 +1808,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1563,7 +1823,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1580,7 +1840,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1597,7 +1857,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1614,7 +1874,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1631,7 +1891,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1701,7 +1961,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1717,7 +1977,7 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1820,7 +2080,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2131,6 +2391,121 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3759200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1" descr="clip_image001.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3098800" y="1219200"/>
+          <a:ext cx="2603500" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3937000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2" descr="ntitled Page.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2895600" y="2044700"/>
+          <a:ext cx="2984500" cy="6604000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2455,47 +2830,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:7" ht="25.5">
-      <c r="B6" s="70" t="s">
+    <row r="6" spans="2:7" ht="32">
+      <c r="B6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-    </row>
-    <row r="7" spans="2:7" ht="25.5">
-      <c r="B7" s="70" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+    </row>
+    <row r="7" spans="2:7" ht="32">
+      <c r="B7" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-    </row>
-    <row r="8" spans="2:7" ht="25.5">
-      <c r="B8" s="70" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="2:7" ht="32">
+      <c r="B8" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="13" spans="2:7">
       <c r="D13" s="1" t="s">
@@ -2513,21 +2888,21 @@
         <v>42571</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="21">
-      <c r="C21" s="69" t="s">
+    <row r="21" spans="2:7" ht="25">
+      <c r="C21" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-    </row>
-    <row r="22" spans="2:7" ht="21">
-      <c r="C22" s="69" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+    </row>
+    <row r="22" spans="2:7" ht="25">
+      <c r="C22" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="4"/>
     </row>
     <row r="32" spans="2:7">
@@ -2540,11 +2915,11 @@
       <c r="D32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="61"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="5" t="s">
@@ -2556,11 +2931,11 @@
       <c r="D33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="8" t="s">
@@ -2572,11 +2947,11 @@
       <c r="D34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="E34" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2600,17 +2975,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5">
@@ -2644,7 +3019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="67.5">
+    <row r="6" spans="2:5" ht="65">
       <c r="B6" s="5" t="str">
         <f>表紙!B32</f>
         <v>0.2版</v>
@@ -2673,24 +3048,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="6" width="13.125" customWidth="1"/>
-    <col min="8" max="9" width="10.125" customWidth="1"/>
+    <col min="5" max="6" width="13.1640625" customWidth="1"/>
+    <col min="8" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" ht="27">
+    <row r="5" spans="2:10" ht="29">
       <c r="B5" s="28" t="s">
         <v>46</v>
       </c>
@@ -2745,7 +3120,7 @@
         <v>48</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -2871,17 +3246,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="67.375" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:5">
@@ -2898,7 +3273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="27">
+    <row r="6" spans="2:5" ht="29">
       <c r="B6" s="18">
         <v>1</v>
       </c>
@@ -2977,164 +3352,333 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="38"/>
-    <col min="2" max="2" width="13.25" style="38" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="38" customWidth="1"/>
-    <col min="5" max="7" width="22.875" style="38" customWidth="1"/>
-    <col min="8" max="8" width="52.875" style="38" customWidth="1"/>
-    <col min="9" max="9" width="9" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="38"/>
+    <col min="2" max="2" width="13.1640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="38" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="21" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="38"/>
+    <col min="11" max="16384" width="8.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:10" ht="41.25" thickBot="1">
-      <c r="B2" s="39" t="s">
+    <row r="1" spans="1:11" ht="18" thickBot="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+    </row>
+    <row r="2" spans="1:11" ht="29">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="G2" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" thickBot="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" thickBot="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" thickBot="1">
+      <c r="A5" s="39"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="42" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="G5" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" thickBot="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" thickBot="1">
+      <c r="A7" s="39"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E7" s="83"/>
+      <c r="F7" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="G7" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49">
+      <c r="H7" s="86"/>
+      <c r="I7" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" thickBot="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" thickBot="1">
+      <c r="A9" s="39"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="95"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" thickBot="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="95"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" thickBot="1">
+      <c r="A11" s="39"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="95"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+    </row>
+    <row r="12" spans="1:11" ht="18" thickBot="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="95"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" thickBot="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" thickBot="1">
+      <c r="A14" s="39"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" thickBot="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="97">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51">
+      <c r="K15" s="97">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-    </row>
-    <row r="7" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="66">
-        <v>1</v>
-      </c>
-      <c r="J7" s="66">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="8">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3143,76 +3687,440 @@
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="38"/>
-    <col min="2" max="2" width="16.75" style="38" customWidth="1"/>
-    <col min="3" max="3" width="65.75" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="38"/>
+    <col min="1" max="1" width="8.83203125" style="38"/>
+    <col min="2" max="2" width="16.6640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B2" s="56" t="s">
+    <row r="1" spans="1:6" ht="18" thickBot="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" thickBot="1">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="39"/>
+      <c r="B3" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="E3" s="47" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="58"/>
-      <c r="C4" s="60"/>
-    </row>
-    <row r="5" spans="2:3" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
+      <c r="F3" s="48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" thickBot="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.5" customHeight="1">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" ht="27">
+    <row r="5" spans="2:10" ht="29">
       <c r="B5" s="28" t="s">
         <v>46</v>
       </c>
@@ -3241,7 +4149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="54">
+    <row r="6" spans="2:10" ht="53">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -3270,18 +4178,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="14.25" thickBot="1"/>
-    <row r="13" spans="2:10" ht="14.25" thickBot="1">
+    <row r="12" spans="2:10" ht="18" thickBot="1"/>
+    <row r="13" spans="2:10" ht="18" thickBot="1">
       <c r="B13" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="2:10" ht="14.25" thickBot="1">
+    <row r="14" spans="2:10" ht="18" thickBot="1">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="2:10" ht="14.25" thickBot="1">
+    <row r="15" spans="2:10" ht="18" thickBot="1">
       <c r="B15" s="29" t="s">
         <v>39</v>
       </c>
@@ -3316,7 +4224,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
